--- a/biology/Médecine/Néphrologie/Néphrologie.xlsx
+++ b/biology/Médecine/Néphrologie/Néphrologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9phrologie</t>
+          <t>Néphrologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La néphrologie est la spécialité médicale visant à prévenir, diagnostiquer et soigner les maladies des reins. Elle est différente de l'urologie, spécialité chirurgicale s'intéressant à l'appareil génital masculin et à l'ensemble du système urinaire (reins, uretères, vessie, prostate, urètre).
 Le terme néphrologie vient des mots grecs νεφρός / nephrós (le rein) et λόγος / lógos (le discours, la raison).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9phrologie</t>
+          <t>Néphrologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,46 +525,120 @@
           <t>Physiologie rénale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les reins ont une double fonction, excrétrice et hormonale. 
-Fonction excrétrice
-Elle consiste en la formation de l'urine. L'urine permet l'élimination des produits du catabolisme et le maintien du milieu intérieur à l'équilibre appelé homéostasie. L'unité fonctionnelle du rein est le néphron, composé d'un glomérule, d'un tubule, d'une artériole afférente (qui entre dans le glomérule) et d'une artériole efférente (qui en sort).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les reins ont une double fonction, excrétrice et hormonale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Physiologie rénale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fonction excrétrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle consiste en la formation de l'urine. L'urine permet l'élimination des produits du catabolisme et le maintien du milieu intérieur à l'équilibre appelé homéostasie. L'unité fonctionnelle du rein est le néphron, composé d'un glomérule, d'un tubule, d'une artériole afférente (qui entre dans le glomérule) et d'une artériole efférente (qui en sort).
 L'urine primitive est obtenue dans le glomérule par ultrafiltration passive du plasma à travers la surface de filtration (constituée par la superposition de l'endothélium capillaire et de la couche viscérale de la capsule de Bowman), sous l'action du gradient de pression existant entre l'artériole afférente, où règne la pression artérielle, et la chambre glomérulaire (aussi appelée espace de Bowman), dans laquelle règne la pression de la voie excrétrice supérieure (normalement faible). L'ultrafiltrat ainsi obtenu s'écoule vers le tubule.
 Le taux de filtration glomérulaire est de l'ordre de 120 ml/min, ce qui signifie que chaque jour, environ 180 litres d'ultrafiltrat plasmatique sont produits dans les glomérules et transportés dans les tubules. Cette urine primitive est réabsorbée à 99 % lors de son passage dans les segments tubulaires successifs qu'elle traverse (tube contourné proximal, anse de Henlé, tube contourne distal puis tube collecteur de Bellini), où se produisent les divers mécanismes de sécrétion et de réabsorption qui aboutissent à l'élaboration d'environ 1,5 litre d'urine définitive par jour.
 Les mouvements ioniques transtubulaires de sécrétion et de réabsorption des substances contenues dans l'urine sont soit passifs (gradient électrochimique), soit actifs et consommateurs d'énergie. Ces échanges d'eau, d'urée, d'électrolytes, etc. entre le tubule et le sang se font avec l'artériole efférente qui, après sa sortie du glomérule, reste proche des tubules.
-Fonction hormonale
-Sécrétion de l'érythropoïétine, hormone stimulant l'érythropoïèse ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Physiologie rénale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fonction hormonale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sécrétion de l'érythropoïétine, hormone stimulant l'érythropoïèse ;
 sécrétion de la rénine, hormone intervenant dans la régulation de la pression artérielle et dans le métabolisme du sodium et du potassium par l'intermédiaire de l'angiotensine et de l'aldostérone ;
 hydroxylation de la vitamine D, inactive, en un dérivé hydroxylé en position 1 (après une première hydroxylation en 25 par le foie, aboutissant au dérivé actif dihydroxylé de la vitamine D, le 1,25-dihydroxycholécalciférol qui joue un rôle majeur dans le métabolisme phosphocalcique et osseux.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Symptômes néphrologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les patients peuvent être amenés à être pris en charge par un néphrologue pour des symptômes variés tels que :
 une anurie ;
@@ -570,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Méthodes diagnostiques en néphrologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comme toujours en médecine, des indications importantes sont fournies par le recueil et l'analyse des données de l'interrogatoire et de l'examen clinique.
 Les examens de laboratoire le plus souvent employés en néphrologie sont des examens sanguins et urinaires :
@@ -609,36 +697,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Affections néphrologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La prévalence des maladies rénales chroniques atteindrait 10 à 15 % de la population américaine adulte. Elle serait en augmentation sensible, en partie due à l'augmentation de la fréquence de l'hypertension artérielle et des diabètes[1].
-Néphropathies
-Néphropathies glomérulaires
-Néphropathies glomérulaires primitives
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence des maladies rénales chroniques atteindrait 10 à 15 % de la population américaine adulte. Elle serait en augmentation sensible, en partie due à l'augmentation de la fréquence de l'hypertension artérielle et des diabètes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Néphropathies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Néphropathies glomérulaires</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Néphropathies glomérulaires primitives
 Néphrose lipoïdique (aussi appelée syndrome néphrotique idiopathique, en particulier chez l'enfant
 Hyalinose segmentaire et focale
 Glomérulonéphrite extramembraneuse
@@ -653,33 +781,294 @@
 maladies auto-immunes :
 syndrome de Goodpasture,
 connectivites : lupus érythémateux disséminé, etc.
-vascularites : périartérite noueuse, granulomatose de Wegener, etc.
-Néphropathies tubulaires et interstitielles
-Nécrose tubulaire ou néphropathie tubulo-interstitielle aiguë
+vascularites : périartérite noueuse, granulomatose de Wegener, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Néphropathies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Néphropathies tubulaires et interstitielles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nécrose tubulaire ou néphropathie tubulo-interstitielle aiguë
 Tubulopathie chronique
 Néphropathies tubulo-interstitielles chroniques
-Pyélonéphrite chronique
-Néphropathies vasculaires
-Néphroangiosclérose
+Pyélonéphrite chronique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Néphropathies</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Néphropathies vasculaires</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Néphroangiosclérose
 Néphroangiosclérose maligne
 Vascularites
-Pré-éclampsie et néphropathie gravidique
-Néphropathies congénitales
-Polykystose rénale
+Pré-éclampsie et néphropathie gravidique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Néphropathies</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Néphropathies congénitales</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Polykystose rénale
 Syndrome d'Alport
-Néphronophtise
-Insuffisance rénale
-Insuffisance rénale aiguë
-Insuffisance rénale chronique
-Autres affections néphrologiques
-Affections d'origine vasculaire
-Hypertension artérielle vasculorénale
-Affections d'origine urologique
-Lithiase urinaire
+Néphronophtise</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Insuffisance rénale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Insuffisance rénale aiguë
+Insuffisance rénale chronique</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Affections d'origine vasculaire</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hypertension artérielle vasculorénale</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Affections d'origine urologique</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lithiase urinaire
 Infection urinaire et pyélonéphrite aiguë
-Cancer du rein
-Troubles hydroélectrolytiques
-Acidose métabolique
+Cancer du rein</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres affections néphrologiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Troubles hydroélectrolytiques</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Acidose métabolique
 Alcalose métabolique
 Déshydratation extracellulaire
 Diabète insipide néphrogénique
@@ -689,72 +1078,110 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines maladies rénales sont traitées par des médicaments tels que les corticoïdes ou les immunosuppresseurs. Beaucoup de patients nécessitent un traitement par des médicaments diurétiques ou antihypertenseurs (car la plupart des maladies rénales s'accompagnent d'une hypertension artérielle).
 L'insuffisance rénale chronique s'accompagne habituellement d'une diminution de la synthèse de deux hormones, l'érythropoïétine (Epo) et la vitamine D, ce qui nécessite un traitement substitutif. Quand l'insuffisance rénale chronique atteint le stade d'insuffisance rénale terminale, la survie des patients repose sur le traitement substitutif par dialyse ou par transplantation rénale.
-L'émission Cash Investigation du 13 janvier 2022 révèle qu'en France, la dialyse est favorisée par rapport à la greffe car elle est plus lucrative pour les établissements de santé[2],[3],[4].
+L'émission Cash Investigation du 13 janvier 2022 révèle qu'en France, la dialyse est favorisée par rapport à la greffe car elle est plus lucrative pour les établissements de santé.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Néphrologues célèbres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Jean Hamburger
 Gabriel Richet
 Jules Traeger
 Jean-Louis Touraine
-Alexandre Loupy
-Personnage de fiction
-Gregory House (personnage principal de la série télévisée « Dr House » ; également diagnosticien).</t>
+Alexandre Loupy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Néphrologie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phrologie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Néphrologues célèbres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Personnage de fiction</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Gregory House (personnage principal de la série télévisée « Dr House » ; également diagnosticien).</t>
         </is>
       </c>
     </row>
